--- a/accidents_09.04.2020.xlsx
+++ b/accidents_09.04.2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zzoomm/Desktop/Accidents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6437C2-222A-FC4F-B36A-56695C285B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A92C183-202A-FB4D-80D9-243F21E4B37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="НС" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="2382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="2387">
   <si>
     <t>Название</t>
   </si>
@@ -7623,6 +7623,21 @@
   </si>
   <si>
     <t>Столкнулись автопоезд, ГАЗель и КамАЗ</t>
+  </si>
+  <si>
+    <t>Каменщик</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>Падение с высоты</t>
+  </si>
+  <si>
+    <t>Авария</t>
+  </si>
+  <si>
+    <t>Ток</t>
   </si>
 </sst>
 </file>
@@ -7979,8 +7994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8025,8 +8040,14 @@
       <c r="C2" s="2">
         <v>43423</v>
       </c>
+      <c r="D2" t="s">
+        <v>2382</v>
+      </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2384</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -8096,6 +8117,9 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" t="s">
+        <v>2385</v>
+      </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
@@ -8113,6 +8137,9 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
+      <c r="F7" t="s">
+        <v>2385</v>
+      </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
@@ -8147,6 +8174,9 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>2384</v>
+      </c>
       <c r="G9" t="s">
         <v>31</v>
       </c>
@@ -8317,6 +8347,9 @@
       <c r="E19" t="s">
         <v>65</v>
       </c>
+      <c r="F19" t="s">
+        <v>2385</v>
+      </c>
       <c r="G19" t="s">
         <v>66</v>
       </c>
@@ -8427,6 +8460,9 @@
       <c r="C26" s="2">
         <v>43425</v>
       </c>
+      <c r="D26" t="s">
+        <v>2382</v>
+      </c>
       <c r="E26" t="s">
         <v>84</v>
       </c>
@@ -8509,6 +8545,9 @@
       <c r="C31" s="2">
         <v>43412</v>
       </c>
+      <c r="D31" t="s">
+        <v>2383</v>
+      </c>
       <c r="E31" t="s">
         <v>20</v>
       </c>
@@ -8563,6 +8602,9 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
+      <c r="F34" t="s">
+        <v>2384</v>
+      </c>
       <c r="G34" t="s">
         <v>109</v>
       </c>
@@ -8614,6 +8656,9 @@
       <c r="E37" t="s">
         <v>119</v>
       </c>
+      <c r="F37" t="s">
+        <v>2386</v>
+      </c>
       <c r="G37" t="s">
         <v>120</v>
       </c>
@@ -8659,6 +8704,9 @@
       <c r="C40" s="2">
         <v>43413</v>
       </c>
+      <c r="D40" t="s">
+        <v>2382</v>
+      </c>
       <c r="E40" t="s">
         <v>126</v>
       </c>
@@ -8749,6 +8797,9 @@
       <c r="C46" s="2">
         <v>43408</v>
       </c>
+      <c r="D46" t="s">
+        <v>2383</v>
+      </c>
       <c r="G46" t="s">
         <v>146</v>
       </c>
@@ -8932,6 +8983,9 @@
       <c r="C58" s="2">
         <v>43399</v>
       </c>
+      <c r="D58" t="s">
+        <v>2383</v>
+      </c>
       <c r="G58" t="s">
         <v>181</v>
       </c>
@@ -9155,6 +9209,9 @@
       </c>
       <c r="C74" s="2">
         <v>43390</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2383</v>
       </c>
       <c r="G74" t="s">
         <v>227</v>

--- a/accidents_09.04.2020.xlsx
+++ b/accidents_09.04.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zzoomm/Desktop/Accidents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A92C183-202A-FB4D-80D9-243F21E4B37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A92D48-5999-F142-8B98-20319677BC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7994,8 +7994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
